--- a/biology/Mycologie/Penicillium_glaucum/Penicillium_glaucum.xlsx
+++ b/biology/Mycologie/Penicillium_glaucum/Penicillium_glaucum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Penicillium glaucum est une espèce de champignons ascomycètes se nourrissant de matière organique non vivante (saprophytisme).  Son principal usage industriel est la production de fromages bleus comme le Gorgonzola ou le Bleu de Gex.
 </t>
